--- a/cost_data.xlsx
+++ b/cost_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Cost (USD)</t>
   </si>
@@ -23,8 +23,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -40,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +56,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,508 +384,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>629.7202365339459</v>
+        <v>393.0705948983281</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>723.6020600024625</v>
+        <v>611.6965627584397</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>127.9760865710001</v>
+        <v>190.534914844711</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>213.4967647281216</v>
+        <v>132.1796902535178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>896.9268660526155</v>
+        <v>708.044920248822</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>425.0896116951045</v>
+        <v>328.5360971663544</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>89.11339129843054</v>
+        <v>201.3052205534722</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>699.3299513130105</v>
+        <v>361.4664830319711</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>989.937707552037</v>
+        <v>322.9518936479725</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>153.5696053347971</v>
+        <v>809.6457569308893</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>934.4921357600596</v>
+        <v>851.4847585377752</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>223.4158230839076</v>
+        <v>459.3552160071399</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>780.6308393193568</v>
+        <v>708.1091181003867</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>921.1672799476852</v>
+        <v>818.1304034626218</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>502.4315269501253</v>
+        <v>725.215109995975</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>705.3125386854475</v>
+        <v>3.545691785096117</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>445.676240628511</v>
+        <v>290.3370508362447</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>118.8602770037785</v>
+        <v>537.7924381333225</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>89.98537798873573</v>
+        <v>972.203647119877</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>491.2140083407377</v>
+        <v>776.8327894074392</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>471.3633500700347</v>
+        <v>22.83099286934376</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>742.0682329204383</v>
+        <v>26.47514055972178</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>393.5556463398879</v>
+        <v>666.8534044651298</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>539.8024058220094</v>
+        <v>45.8342450783118</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>97.02711182916113</v>
+        <v>502.1268967197969</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>843.5538312879253</v>
+        <v>969.4044114368227</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>722.4516068008185</v>
+        <v>195.31577565964</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>971.9937607033196</v>
+        <v>770.6255983876358</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>729.8088358871515</v>
+        <v>443.5562000646214</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>616.0876336076506</v>
+        <v>209.9125614943965</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>303.6566382686277</v>
+        <v>973.2881738830158</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>282.5636480199956</v>
+        <v>177.3237465074006</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>933.6333720279652</v>
+        <v>317.7431106138305</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>777.6916102925414</v>
+        <v>722.7313542026652</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>553.047517777414</v>
+        <v>605.8307939765019</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>496.0252409740081</v>
+        <v>225.8353194932926</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>255.4406121818414</v>
+        <v>783.774641263385</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>765.8617680719306</v>
+        <v>913.786072318316</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>387.5400120122515</v>
+        <v>277.8580974295803</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>168.4745831646626</v>
+        <v>419.6757326367966</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>91.48596825945532</v>
+        <v>359.9607413413158</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>881.1519477040629</v>
+        <v>641.1447941872542</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>748.1456842262993</v>
+        <v>316.0824816115845</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>498.9680442458452</v>
+        <v>639.6160427044</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>962.8526693288698</v>
+        <v>335.0253489638625</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>221.6493461502804</v>
+        <v>890.6362096985453</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>673.2368106653756</v>
+        <v>352.0625127741428</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>805.3004233790764</v>
+        <v>296.0608438452127</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>814.6677693039186</v>
+        <v>483.1464634271343</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>760.7415451723496</v>
+        <v>245.815461075208</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>245.8067692788456</v>
+        <v>30.40827224743925</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>222.404526061784</v>
+        <v>119.6135097314061</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>692.9592708213715</v>
+        <v>80.66084331212342</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>275.0546821393032</v>
+        <v>893.3823050355899</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>387.0880971188465</v>
+        <v>358.6472277997598</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>607.9954147007946</v>
+        <v>623.5007968557629</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>433.6021458304624</v>
+        <v>100.3296628280477</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>384.7060620493273</v>
+        <v>723.603424301994</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>361.9799798242108</v>
+        <v>760.8353769989374</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>440.8077920636424</v>
+        <v>206.7724620786361</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>845.5864687139668</v>
+        <v>72.48089552840953</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>148.0474110690262</v>
+        <v>138.7281342591214</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>697.4299437806901</v>
+        <v>505.0749441945265</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>558.5710042925641</v>
+        <v>958.9418839679272</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>30.09940023658153</v>
+        <v>564.0617557954705</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>508.9564347545966</v>
+        <v>809.451132467905</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>425.3334816117505</v>
+        <v>952.9390277132202</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>946.1874976347838</v>
+        <v>517.8251652211792</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>380.2241972683416</v>
+        <v>133.9919838565579</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>596.978014217645</v>
+        <v>823.1319034846244</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>233.3149512378762</v>
+        <v>54.83055863417397</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>457.8822776526803</v>
+        <v>242.9416352943204</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>331.1883493805001</v>
+        <v>623.2838818813473</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1.167744881879429</v>
+        <v>622.3652638168562</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>620.2501318242013</v>
+        <v>335.9639954253658</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>907.9755920970117</v>
+        <v>273.1352038957132</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>418.0063597052502</v>
+        <v>521.1778622815635</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>314.0318611053164</v>
+        <v>740.5445942033444</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>379.7318655732673</v>
+        <v>820.0898532313106</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>665.6314386762003</v>
+        <v>7.853273048820775</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>218.5238441406112</v>
+        <v>812.8617019572131</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>232.4002004537392</v>
+        <v>829.1318029307514</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>68.60851733840923</v>
+        <v>984.4799168501771</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>623.454648028501</v>
+        <v>859.6958157951192</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>498.0701306237928</v>
+        <v>787.6728389783523</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>601.4114876049613</v>
+        <v>311.6692632207789</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>364.9946604820757</v>
+        <v>880.2937967715109</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>74.29655768631271</v>
+        <v>197.0424302948252</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>931.7477544271177</v>
+        <v>599.2182298886908</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>837.2045253956254</v>
+        <v>413.1660992893948</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>527.1168212222925</v>
+        <v>954.4337981491103</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>462.6271446360064</v>
+        <v>54.07313894820953</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>400.7686551696771</v>
+        <v>958.1646675638298</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>360.0077704024517</v>
+        <v>766.8457651799255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>159.1261561292372</v>
+        <v>448.6719021760761</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>206.3469663432062</v>
+        <v>603.8645408300213</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>701.5261203478501</v>
+        <v>859.7773532632117</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>529.0815723437775</v>
+        <v>97.9000473898498</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>72.85890925551386</v>
+        <v>370.7116847676718</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>466.3155841309209</v>
+        <v>248.349813881321</v>
       </c>
     </row>
   </sheetData>

--- a/cost_data.xlsx
+++ b/cost_data.xlsx
@@ -374,13 +374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -390,502 +390,3417 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>393.0705948983281</v>
+        <v>385.5625015916781</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>611.6965627584397</v>
+        <v>606.9487528279318</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>190.534914844711</v>
+        <v>565.5706323547209</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>132.1796902535178</v>
+        <v>31.14067434579459</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>708.044920248822</v>
+        <v>183.9219359811047</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>328.5360971663544</v>
+        <v>182.9074973403918</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>201.3052205534722</v>
+        <v>81.90269532327844</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>361.4664830319711</v>
+        <v>127.9726242856297</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>322.9518936479725</v>
+        <v>690.0448062964629</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>809.6457569308893</v>
+        <v>70.02170661489748</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>851.4847585377752</v>
+        <v>39.89646951862203</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>459.3552160071399</v>
+        <v>290.5831214573086</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>708.1091181003867</v>
+        <v>859.8701746593906</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>818.1304034626218</v>
+        <v>215.1637258034569</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>725.215109995975</v>
+        <v>794.3470534007329</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>3.545691785096117</v>
+        <v>133.8454454760326</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>290.3370508362447</v>
+        <v>344.946217406351</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>537.7924381333225</v>
+        <v>161.2731672210529</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>972.203647119877</v>
+        <v>337.1841405881124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>776.8327894074392</v>
+        <v>85.56380731160561</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>22.83099286934376</v>
+        <v>407.2341691807805</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>26.47514055972178</v>
+        <v>564.084054907262</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>666.8534044651298</v>
+        <v>627.7923095612233</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>45.8342450783118</v>
+        <v>925.6017661368097</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>502.1268967197969</v>
+        <v>97.77432220905902</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>969.4044114368227</v>
+        <v>295.1291586995512</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>195.31577565964</v>
+        <v>57.99514003371276</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>770.6255983876358</v>
+        <v>342.1021449505358</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>443.5562000646214</v>
+        <v>230.1208822191708</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>209.9125614943965</v>
+        <v>933.0198585266066</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>973.2881738830158</v>
+        <v>218.110950833178</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>177.3237465074006</v>
+        <v>155.6171264931575</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>317.7431106138305</v>
+        <v>277.1653661403917</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>722.7313542026652</v>
+        <v>929.2967899189905</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>605.8307939765019</v>
+        <v>815.2169320114232</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>225.8353194932926</v>
+        <v>481.6196108598973</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>783.774641263385</v>
+        <v>159.8829373629306</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>913.786072318316</v>
+        <v>453.9361930700755</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>277.8580974295803</v>
+        <v>875.8190978111121</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>419.6757326367966</v>
+        <v>851.1375111786305</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>359.9607413413158</v>
+        <v>523.3558445714502</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>641.1447941872542</v>
+        <v>730.8697426775631</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>316.0824816115845</v>
+        <v>653.5760525760395</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>639.6160427044</v>
+        <v>478.5834923829069</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>335.0253489638625</v>
+        <v>890.4108796624633</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>890.6362096985453</v>
+        <v>561.1952417746691</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>352.0625127741428</v>
+        <v>161.526099920659</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>296.0608438452127</v>
+        <v>962.3431044343024</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>483.1464634271343</v>
+        <v>204.8251498047903</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>245.815461075208</v>
+        <v>915.0600382444262</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>30.40827224743925</v>
+        <v>513.7712660892646</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>119.6135097314061</v>
+        <v>131.4960508038483</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>80.66084331212342</v>
+        <v>511.1179398100319</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>893.3823050355899</v>
+        <v>635.9363689733397</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>358.6472277997598</v>
+        <v>714.2100735569957</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>623.5007968557629</v>
+        <v>413.8178582516814</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>100.3296628280477</v>
+        <v>429.5657241410884</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>723.603424301994</v>
+        <v>575.6986759709017</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>760.8353769989374</v>
+        <v>147.5905122581163</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>206.7724620786361</v>
+        <v>471.1809788431697</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>72.48089552840953</v>
+        <v>895.3115744595084</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>138.7281342591214</v>
+        <v>427.2446427414781</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>505.0749441945265</v>
+        <v>67.93224790485297</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>958.9418839679272</v>
+        <v>209.8856294942116</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>564.0617557954705</v>
+        <v>290.7664259986295</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>809.451132467905</v>
+        <v>166.0474109291664</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>952.9390277132202</v>
+        <v>283.3883053435675</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>517.8251652211792</v>
+        <v>30.37369297078896</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>133.9919838565579</v>
+        <v>499.8172439632579</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>823.1319034846244</v>
+        <v>639.4701477256556</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>54.83055863417397</v>
+        <v>919.6323133551126</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>242.9416352943204</v>
+        <v>664.7209722696259</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>623.2838818813473</v>
+        <v>795.8105959953108</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>622.3652638168562</v>
+        <v>661.7266795651155</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>335.9639954253658</v>
+        <v>980.8442018590106</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>273.1352038957132</v>
+        <v>92.36097659144204</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>521.1778622815635</v>
+        <v>178.515112744845</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>740.5445942033444</v>
+        <v>737.1396333025931</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>820.0898532313106</v>
+        <v>533.4536292203702</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>7.853273048820775</v>
+        <v>823.064937396632</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>812.8617019572131</v>
+        <v>681.201374553387</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>829.1318029307514</v>
+        <v>168.3993078877978</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>984.4799168501771</v>
+        <v>540.4857522083098</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>859.6958157951192</v>
+        <v>722.2912292929118</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>787.6728389783523</v>
+        <v>941.5215366035586</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>311.6692632207789</v>
+        <v>828.9206355718007</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>880.2937967715109</v>
+        <v>503.4620827744356</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>197.0424302948252</v>
+        <v>691.6548753037438</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>599.2182298886908</v>
+        <v>208.4723121532875</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>413.1660992893948</v>
+        <v>124.2420802012373</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>954.4337981491103</v>
+        <v>608.243416022126</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>54.07313894820953</v>
+        <v>313.521033941755</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>958.1646675638298</v>
+        <v>587.4186440228</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>766.8457651799255</v>
+        <v>129.7503281987987</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>448.6719021760761</v>
+        <v>423.7759829728004</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>603.8645408300213</v>
+        <v>342.725658902555</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>859.7773532632117</v>
+        <v>561.8388879921323</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>97.9000473898498</v>
+        <v>598.4949581967289</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>370.7116847676718</v>
+        <v>689.1497734000593</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>248.349813881321</v>
+        <v>947.2108099920044</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>816.646519596035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>871.0383131735551</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>480.2910085519542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>598.9209467449579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>420.7756640927154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>441.4617847616909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>994.6723291643137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>526.8689396984583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>459.0316703233074</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>124.1264520291052</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>330.5639212567214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>712.8436710135386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>599.0783095505375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>75.35917156425876</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>255.3432084423586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>636.5586204969538</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>843.9445027424081</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>290.7122004622478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>126.1713461647598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>807.9789570246495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>787.1120117759074</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>633.7805952353834</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>555.3524019921575</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>870.4233154972374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>657.510910383126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>315.1654612908031</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>406.1750423866164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>206.4687644159985</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>206.8078787423561</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>905.8604879256491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>686.0051284956058</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>792.35009380674</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>504.4765274802407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>136.6063950695471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>461.9154502515543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>972.4938101470125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>997.8925683756675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>143.4179043153214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>398.7888003893842</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>512.5234573990908</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>422.8260739638434</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>663.8816719986071</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>176.8251417397225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>925.297700228936</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>251.7749335394051</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>240.3495287518536</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>222.9249905268821</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>542.2240023479592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>617.0068779802825</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>875.1931186804245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>288.6636790907372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>569.4315239765674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>574.9350791888683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>986.7936867391239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>732.1027831056789</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>397.2941654413639</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>59.74596156559642</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>833.0881829152756</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>996.1445520372519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>111.6449954004617</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>710.6270905226661</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>216.8582497985702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>591.2586840314705</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>608.2362937755836</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>524.1333906592656</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>48.60513445058368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>37.54522945244943</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>79.46534041350084</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>865.8981385708161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>53.9734919924807</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>249.499580191781</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>101.8997583904176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>48.3387151191127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>435.5396878867781</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>721.8296276438808</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>750.0844873289542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>520.1436568381158</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>289.0440597458818</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>814.8146991981423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>483.6248039086387</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>230.6722989949501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>385.923296763659</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>903.8648297716762</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>322.0231621690236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>631.2367325671607</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>572.7181804957064</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>428.1084367095428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>914.4714433118263</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>560.254872129932</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>549.5321511887576</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>919.9358624633594</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>178.5855446799534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>272.4083580739037</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>783.4610198329522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>683.7498716802562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>787.7562719100621</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>500.6962368552764</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>686.1134092887083</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>421.6682221988846</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>477.6057921586066</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>182.1952321649864</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>285.4158070827577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>89.66540049602601</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>933.5166471635033</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>811.4036660251135</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>524.9217283845212</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>945.3043645115374</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>158.258238890826</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>472.4769976516402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>720.8539666243429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>979.0910019212989</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>269.897874249571</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>190.7141006061525</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>787.8331436652173</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>101.9284477055895</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>857.3282801665633</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>59.98359478742232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>75.11755906324812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>803.4844306832449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>676.1461996614438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>706.7069315502457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>458.0991928126829</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>476.5069622277657</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>685.3564001294822</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>956.9962664899048</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>538.9334563345644</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>389.6304930821115</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>900.7734394621323</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>599.8173113711243</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>923.6659740351981</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>955.5981544501004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>396.0861540291958</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>235.037627892789</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>147.0604806332026</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>24.24156134174993</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>493.6967754098806</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>37.15532087201501</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>214.777867248552</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>769.4134059094156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>677.6952069677334</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>850.3000533139867</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>995.0359530545094</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>562.1397031595219</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>911.6627626635346</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>113.8875495984295</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>623.1522151955162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>872.9436050138307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>100.6106444988981</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>304.2683470542739</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>299.5848182602016</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>834.5427783213225</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>74.24061682250682</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>542.3940660895563</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>691.8182398445156</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>480.3984257837722</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>425.8484986081576</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>474.6721810760159</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>447.1551758216655</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>974.199576395908</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>870.3988694117515</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>881.3532812755819</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>104.5192813431544</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>239.6282873673579</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>207.4489363935905</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>158.976571956092</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>240.1525540016249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>973.4195022583054</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>487.93385779894</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>426.9518201236043</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>494.6091548819446</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>804.9482063943044</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>633.1863905013898</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>675.6103009728663</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>846.03029347293</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>535.1479046201869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>568.9108312790028</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>130.7169702995838</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>13.04318020730799</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>391.2118252218393</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>499.0627051186265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>606.6916491455409</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>470.7910756065747</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>610.528978080548</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>661.5166174487795</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>329.8874459589072</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>483.6733981877893</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>146.4189534132086</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>173.9336252614493</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>639.3077930486626</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>24.41254465793385</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>562.1005483316072</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>868.8279446603714</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>64.60850481867197</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>89.91793264942683</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>482.9323278525146</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>840.6401033709526</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>33.46109198043224</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>248.4308995422974</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>598.2276618605213</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>836.2085634785943</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>288.7221686252292</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>695.2029281435655</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>82.30399526551069</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>427.9800341910126</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>535.81077632452</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>657.7091982147332</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>296.0410216388925</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>93.16485196410062</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>217.090763106345</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>600.1871280016354</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>389.6785384573015</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>346.1262738282832</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>832.2338454856964</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>136.3363256215394</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>677.8433450456918</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>164.6483428523758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>75.1786533825225</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>85.2827814724173</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>207.7740255683445</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>554.4450642084689</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>165.5036996332514</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>289.3585240969538</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>882.4402622061115</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>160.7941532936843</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>74.9003938548185</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>30.23973459679352</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>135.9790446046825</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>77.61166900881911</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>541.98247731093</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>939.9599791982126</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>796.5082277433361</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>147.2171302078316</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>175.8934992329694</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>166.7234697971115</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>303.889570154264</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>361.2339769790194</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>395.4331956373145</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>108.2275405262568</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>824.1388561145296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>319.0003728814216</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>191.2768663216777</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>217.6142295643242</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>650.3317958077386</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>791.2661506598835</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>372.0808561316289</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>623.5376097248799</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>960.3195038839114</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>742.0118947964522</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>306.1530095030187</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>351.923245979728</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>112.3428680291557</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>93.6381723437747</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>893.3042865894768</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>588.8772892277033</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>427.4685017580317</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>777.8350985290868</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>961.5788254370219</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>688.7171681943844</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>875.668218616004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>586.6927928123378</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>656.4630571998958</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>81.83060890718386</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>649.8817639056583</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>24.63045223212579</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>939.4571782268808</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>443.1646134465753</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>724.0175116807685</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>455.269691859156</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>55.89453392660282</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>314.4125681372778</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>461.9634339531733</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>860.5754419422221</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>909.6239602490946</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>806.8237737283249</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>792.680161201227</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>273.451883618923</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>79.53607212799906</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>254.5703174207133</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>1.460109438167101</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>390.1782823899234</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>782.9131637698509</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>965.0289479818341</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>544.3859608637273</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>100.6449089323918</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>808.3476157782223</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>163.4415026417095</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>84.85005268615153</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>38.03305199987383</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>381.0771028982901</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>864.8857412645946</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>796.6872403542343</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>231.0957890751509</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>604.5252827413133</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>963.7725373062892</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>440.1547835030426</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>264.5149186187561</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>580.5381029611337</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>793.7749910033671</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>136.3702819437102</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>698.3720177819639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>486.1247717644043</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>705.4370851090088</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>908.9792417632558</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>192.8053480489101</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>953.5986351036684</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>136.6437993526148</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>822.5958634812872</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>226.5554770937714</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>526.6870547744642</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>589.0927470935428</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>218.1511176612683</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>560.0995708757451</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>754.256859406829</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>375.1979201434894</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>498.1739666747638</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>98.03666466280248</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>794.7840011855301</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>573.4942142445409</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>720.5646401101478</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>329.6573177945851</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>14.85176441126046</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>329.3906180313043</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>525.9010533441302</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>604.1195239376335</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>291.7327903981317</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>830.046211191831</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>304.7432185664471</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>623.1635202263853</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>112.9121642873339</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>529.1118939285518</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>59.89524533365576</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>250.9101955271769</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>843.7340362407851</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>682.2570150192977</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>803.603609680899</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>262.6296688696355</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>318.6381694551974</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>121.4672011105192</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>45.29472254528144</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>352.1187367139621</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>566.3313884592342</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>606.5673777807042</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>618.6804068570013</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>656.4970617357573</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>617.3051230768743</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>71.07910611406609</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>339.057846431022</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>457.3929110090026</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>269.9281539797077</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>369.7264520132717</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>482.876175421356</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>937.0839736335946</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>332.8080037052824</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>691.2717896624932</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>928.9287829896336</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>196.5814887664851</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>592.6772392736488</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>517.9831377544959</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>940.9749024117903</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>116.0313079745391</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>117.5531954254043</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>618.9794708133265</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>528.5503221995133</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>987.4872800148754</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>345.9611619963923</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>89.44490681746665</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>70.80624855010009</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>698.861261006752</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>523.3480761021419</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>65.38519750185512</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>756.3004458854646</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>214.8235551987531</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>467.969070978997</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>430.9665832642038</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>797.2561506952734</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>217.2011843174925</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>755.740728565936</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>191.6898654066271</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>661.0029151981954</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>317.9549814132741</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>799.8939724075491</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>208.358019758205</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>344.7415846253</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>488.41786177445</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>68.59807246556326</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>112.0153912319789</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>427.8443328791488</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>275.5735175806498</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>828.5484591148962</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>768.2334147088618</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>142.1864543585281</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>306.2178477370052</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>352.790587302301</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>463.1628693464174</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>975.8609935112171</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>679.7456799888629</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>870.0142805745593</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>25.32808200240411</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>778.4295495782786</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>62.77612975349467</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>50.6622392437488</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>487.3947969817001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>696.7757213650088</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>125.5912781335915</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>197.6119787565671</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>627.5102466655828</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>548.0202413078393</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>120.7929612861557</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>526.0411254262086</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>747.1277794159959</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>85.0109041439614</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>304.0479388332019</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>93.42617956009613</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>385.6027779352518</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>455.4029329575119</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>398.273928954546</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>471.9019638436337</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>126.9530471637488</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>822.3465859035498</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>382.8942308555928</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>466.4264424341552</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>92.44986470972172</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>349.5787864281133</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>290.4166541326495</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>191.3172130984029</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>531.0540698408744</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>229.6247487031133</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>968.4306408874028</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>317.6569260014002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>516.2908414148901</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>279.6013903368799</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>144.4866168918803</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>794.426073608018</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>105.9877924120012</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>300.7668671761664</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>63.4650947830957</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>155.037337418686</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>41.59396083098343</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>478.4248195399191</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>430.5747009794263</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>355.5062987088853</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>366.3555372918997</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>188.3556585765213</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>559.7643270256187</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>114.0499767441587</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>943.3881106890217</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>130.597084639564</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>403.0108553881013</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>453.9493091200694</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>132.0547869047396</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>468.8926190512219</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>681.3207437866796</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>885.2121329536852</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>900.2690411115559</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>461.4835778487497</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>812.228935269871</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>598.2547130784683</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>865.7490980064202</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>875.1014850232546</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>325.0762731082419</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>87.9835219425934</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>941.2454141262212</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>406.9073551407011</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>909.8019456104254</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>648.3829651463382</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>287.850249200499</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>73.11503070861913</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>244.9824132541023</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>510.8839904605413</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>832.2810076471378</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>105.2840266476614</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>253.3860236837123</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>927.0120126960871</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>762.7043750701228</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>210.3846225369248</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>924.3627780651437</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>336.678421331539</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>468.4769546248001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>378.6409079230506</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>18.06803569372739</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>722.7304998993573</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>687.8048693311359</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>485.1490089574422</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>861.4074012638786</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>904.5880710549224</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>554.8926650757431</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>942.3083334661078</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>79.4320288029371</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>241.8721661417473</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>489.754374056125</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>896.3016217333522</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>634.6509626616335</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>346.785438826738</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>573.0835990896825</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>998.327528060148</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>840.7750586752202</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>59.80015984964804</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>789.5443923439612</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>665.358818720737</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>502.5774168235685</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>626.1210515927336</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>42.08590212299679</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>721.7635752396634</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>501.0990968256216</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>222.4603555079478</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>869.2060549673826</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>704.4368947836456</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>425.9666416777663</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>0.3026491979117862</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>735.2485869581585</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>403.5947169552584</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>394.6502838388003</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>21.73996717462656</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>661.5829655924965</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>430.07669633539</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>803.0572976263367</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>806.7722807726888</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>99.56573662325063</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>686.6876674895609</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>534.9924967523431</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>524.7631251496427</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>301.5437366494738</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>602.3565900377988</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>30.92309147060823</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>401.9029905474435</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>531.6625542252233</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>237.7480428088809</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>237.794640784277</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>665.7803590173808</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>777.5408995253197</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>67.60544508623478</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>543.2377274431439</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>727.1278368570073</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>448.5396093297434</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>902.4205926253799</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>764.4765154905749</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>835.8176204533007</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>276.1478025915264</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>835.5295518852562</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>692.8667624224204</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>811.6879312672119</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>655.624691259067</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>478.3823002657429</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>22.26667704239837</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>580.5352588543698</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>986.0093632926383</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>300.4174723828026</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>886.2469145936786</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>907.2678000538043</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>358.3710277419447</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>265.3987700971094</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>281.5294237193099</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>689.086752553808</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>907.5551407980116</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>730.8287777684836</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>982.0246986315735</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>863.2221661801433</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>357.338221574647</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>251.5024320037105</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>337.6024885790291</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>101.0707327700878</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>405.0541864713656</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>812.9316154827517</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>806.7400027082392</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>137.4958226526031</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>535.2124570063079</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>671.3298012045814</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>695.8386078668918</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>718.6425455893398</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>58.84573354476996</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>976.249324186837</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>929.0120989610801</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>686.4107715179746</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>98.92772280841989</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>4.079530604496062</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>984.9221560908858</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>317.4598537890845</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>401.1399309197088</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>142.6806250874675</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>202.8569531563036</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>936.6001478598322</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>918.332387586892</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>57.89459160863009</v>
       </c>
     </row>
   </sheetData>
